--- a/data/Psychrophiles and Thermophiles.xlsx
+++ b/data/Psychrophiles and Thermophiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aed3d806ed7068fe/Documents/GitHub/TARA-thiolases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{7ACB10E6-3A25-4D72-9F4B-6E9F0C2BB121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CBFB006-455B-4CA4-AB31-5F08D55DC0E9}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{7ACB10E6-3A25-4D72-9F4B-6E9F0C2BB121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0AC3400-151F-4111-A2FA-39724598DA4E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D20BB76-7F3F-49CF-9972-83C8C9A32C4D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="201">
   <si>
     <t>to_synthesize</t>
   </si>
@@ -176,12 +176,6 @@
     <t>petroleum-contaminated soil collected near the petroleum pumping and storage warehouse at the Henryk Arctowski Polish Antarctic Station</t>
   </si>
   <si>
-    <t>Psychrobacter cibarius strain W1</t>
-  </si>
-  <si>
-    <t>Psychrobacter</t>
-  </si>
-  <si>
     <t>fig|282669.3.peg.967</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>https://doi.org/10.1093/femsle/fnaa004</t>
   </si>
   <si>
-    <t>this is the article that the info is coming from on patric but I'm not sure it is tallking about the right bacteria</t>
-  </si>
-  <si>
     <t>OleA_locus</t>
   </si>
   <si>
@@ -594,13 +585,64 @@
   </si>
   <si>
     <t>lat_long</t>
+  </si>
+  <si>
+    <t>New Britain Trench (149.8◦E, 7.0◦S)</t>
+  </si>
+  <si>
+    <t>16-20 C</t>
+  </si>
+  <si>
+    <t>parasedimentalea</t>
+  </si>
+  <si>
+    <t>5 C is just from patric</t>
+  </si>
+  <si>
+    <t>Mesophilic</t>
+  </si>
+  <si>
+    <t>Kocuria salsicia sp. G1</t>
+  </si>
+  <si>
+    <t>Kocuria</t>
+  </si>
+  <si>
+    <t>30-37 C</t>
+  </si>
+  <si>
+    <t>on ppt</t>
+  </si>
+  <si>
+    <t>40° 01.61′ N, 144° 12.88′ E</t>
+  </si>
+  <si>
+    <t>77° 07′ S, 161° 50′ E</t>
+  </si>
+  <si>
+    <t>74°41·753′S, 164°07·188′E</t>
+  </si>
+  <si>
+    <t>62.09601 S 58.28464 W</t>
+  </si>
+  <si>
+    <t>61° 119' N 48° 019' W</t>
+  </si>
+  <si>
+    <t>149.8° E, 7.0° S</t>
+  </si>
+  <si>
+    <t>I looked this up myself</t>
+  </si>
+  <si>
+    <t>47.40917° N,  7.067270° E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +680,13 @@
       <u/>
       <sz val="4"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -684,12 +733,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -703,6 +746,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,9 +817,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -789,40 +837,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1138,965 +1184,1108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083C16F-3167-4878-8322-8AAE01B755F8}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="132" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="132" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="13" max="13" width="13.6328125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-1.7</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="6" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="17">
+        <v>-1.5</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K13" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K15" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5">
+      <c r="C19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
+      <c r="C20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-1.7</v>
-      </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5">
+      <c r="C21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
+      <c r="C22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5">
+      <c r="C23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="20">
-        <v>-1.5</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4">
+      <c r="C24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5">
+      <c r="C25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4">
+      <c r="C26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5">
+      <c r="C27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K13" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="21"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="L28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/Psychrophiles and Thermophiles.xlsx
+++ b/data/Psychrophiles and Thermophiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aed3d806ed7068fe/Documents/GitHub/TARA-thiolases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="8_{7ACB10E6-3A25-4D72-9F4B-6E9F0C2BB121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0AC3400-151F-4111-A2FA-39724598DA4E}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{7ACB10E6-3A25-4D72-9F4B-6E9F0C2BB121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57D3CDB4-32AF-456D-B1C2-E48111C4FC70}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D20BB76-7F3F-49CF-9972-83C8C9A32C4D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="207">
   <si>
     <t>to_synthesize</t>
   </si>
@@ -636,13 +636,31 @@
   </si>
   <si>
     <t>47.40917° N,  7.067270° E</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/s10482-013-9959-4</t>
+  </si>
+  <si>
+    <t>45 C</t>
+  </si>
+  <si>
+    <t>optimum 0% salts and pH = 7</t>
+  </si>
+  <si>
+    <t>Rehai National Park, Tengchong, Yunnan Province, South-West China.</t>
+  </si>
+  <si>
+    <t>the danish slaughterhouse</t>
+  </si>
+  <si>
+    <t>"cold room"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +728,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -817,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -850,9 +875,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -869,6 +891,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1186,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083C16F-3167-4878-8322-8AAE01B755F8}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="132" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="I12" zoomScale="132" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,7 +1353,7 @@
       <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>200</v>
       </c>
       <c r="N3" s="7" t="s">
@@ -1380,7 +1406,7 @@
         <v>87</v>
       </c>
       <c r="O4" s="8"/>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="13" t="s">
         <v>75</v>
       </c>
       <c r="Q4" s="8" t="s">
@@ -1429,7 +1455,7 @@
         <v>88</v>
       </c>
       <c r="O5" s="8"/>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="13" t="s">
         <v>76</v>
       </c>
       <c r="Q5" s="8" t="s">
@@ -1516,7 +1542,7 @@
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>-1.5</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1526,7 +1552,7 @@
         <v>80</v>
       </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="13" t="s">
         <v>82</v>
       </c>
       <c r="Q7" s="8" t="s">
@@ -1571,8 +1597,10 @@
       <c r="M8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
+      <c r="N8" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="O8" s="12"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="8" t="s">
         <v>192</v>
@@ -1660,7 +1688,9 @@
       <c r="M10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="O10" s="8" t="s">
         <v>187</v>
       </c>
@@ -1710,20 +1740,23 @@
       <c r="O11" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="13" t="s">
         <v>97</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P12" s="21"/>
+    </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K14" s="10" t="s">
@@ -1734,12 +1767,12 @@
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
@@ -1830,10 +1863,10 @@
         <v>106</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>15</v>
@@ -1842,9 +1875,15 @@
         <v>15</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="6"/>
+      <c r="Q19" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
@@ -1891,9 +1930,9 @@
         <v>15</v>
       </c>
       <c r="P20" s="4"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
@@ -1940,9 +1979,9 @@
         <v>15</v>
       </c>
       <c r="P21" s="3"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
@@ -1989,9 +2028,9 @@
         <v>15</v>
       </c>
       <c r="P22" s="4"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
@@ -2038,9 +2077,9 @@
         <v>15</v>
       </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="6"/>
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
@@ -2087,9 +2126,9 @@
         <v>15</v>
       </c>
       <c r="P24" s="4"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
@@ -2136,9 +2175,9 @@
         <v>15</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
@@ -2185,9 +2224,9 @@
         <v>15</v>
       </c>
       <c r="P26" s="4"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
@@ -2234,9 +2273,9 @@
         <v>15</v>
       </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
@@ -2283,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="P28" s="4"/>
-      <c r="Q28" s="7"/>
+      <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="S28" s="6"/>
     </row>
@@ -2294,8 +2333,9 @@
     <hyperlink ref="P5" r:id="rId3" display="https://doi.org/10.1007/s10126-017-9767-3" xr:uid="{FF6A6B2B-B9B9-4635-B675-04D1D59FE4F9}"/>
     <hyperlink ref="P6" r:id="rId4" display="https://doi.org/10.1099/ijs.0.02366-0" xr:uid="{37D385A3-C90C-41E3-944A-2E8C688449FF}"/>
     <hyperlink ref="P11" r:id="rId5" xr:uid="{20F10F40-4E50-4EE3-9330-D4A21D0FF41D}"/>
+    <hyperlink ref="S19" r:id="rId6" display="https://doi.org/10.1007/s10482-013-9959-4" xr:uid="{D4F64722-DBEA-41FE-A08D-E5300B4F990D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/Psychrophiles and Thermophiles.xlsx
+++ b/data/Psychrophiles and Thermophiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aed3d806ed7068fe/Documents/GitHub/TARA-thiolases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{7ACB10E6-3A25-4D72-9F4B-6E9F0C2BB121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57D3CDB4-32AF-456D-B1C2-E48111C4FC70}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="8_{7ACB10E6-3A25-4D72-9F4B-6E9F0C2BB121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7D017F3-F6F7-47BB-9E46-B1FA95DC3ACF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D20BB76-7F3F-49CF-9972-83C8C9A32C4D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="227">
   <si>
     <t>to_synthesize</t>
   </si>
@@ -374,9 +374,6 @@
     <t>Thermophilic</t>
   </si>
   <si>
-    <t>50-55</t>
-  </si>
-  <si>
     <t>Candidatus Riflebacteria bacterium BY5</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>fig|326427.4.peg.557</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Deltaproteobacteria bacterium strain B30_G6</t>
   </si>
   <si>
@@ -654,13 +648,79 @@
   </si>
   <si>
     <t>"cold room"</t>
+  </si>
+  <si>
+    <t>https://bacdive.dsmz.de/strain/431</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=1220571</t>
+  </si>
+  <si>
+    <t>https://www.nite.go.jp/nbrc/catalogue/NBRCCatalogueDetailServlet?ID=NBRC&amp;CAT=00103104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kakegawa, Shizuoka</t>
+  </si>
+  <si>
+    <t>Soil in a field</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1099/ijs.0.64692-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/femsec/fiy152</t>
+  </si>
+  <si>
+    <t>Tomsk Region of the Western Siberia, Russia.</t>
+  </si>
+  <si>
+    <t>55 C</t>
+  </si>
+  <si>
+    <t>50-55 C</t>
+  </si>
+  <si>
+    <t>57 C</t>
+  </si>
+  <si>
+    <t>Okukinu Meotobuchi hot spring in Tochigi Prefecture, Japan.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1099/00207713-45-4-676</t>
+  </si>
+  <si>
+    <t>50-60 C</t>
+  </si>
+  <si>
+    <t>all seem to be from the same source but I can't find it</t>
+  </si>
+  <si>
+    <t>patric seems to be pulling data about Mastigocladus laminosus, is that the same thing?</t>
+  </si>
+  <si>
+    <t>DOI: 10.4056/sigs.1533840</t>
+  </si>
+  <si>
+    <t>41 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Kah-nee-tah Hot Spring, Oregon,USA</t>
+  </si>
+  <si>
+    <t>44.86 N, 121.20 W</t>
+  </si>
+  <si>
+    <t>hot sprring</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA362212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,8 +796,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -881,6 +953,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,6 +968,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1210,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083C16F-3167-4878-8322-8AAE01B755F8}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I12" zoomScale="132" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="N18" zoomScale="132" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,6 +1298,8 @@
     <col min="13" max="13" width="13.6328125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="27.26953125" customWidth="1"/>
+    <col min="17" max="17" width="20.54296875" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1258,7 +1337,7 @@
         <v>83</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>69</v>
@@ -1306,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>73</v>
@@ -1353,8 +1432,8 @@
       <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>200</v>
+      <c r="M3" s="20" t="s">
+        <v>198</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>90</v>
@@ -1449,7 +1528,7 @@
         <v>15</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>88</v>
@@ -1498,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>79</v>
@@ -1542,11 +1621,11 @@
       <c r="K7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="17">
         <v>-1.5</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>80</v>
@@ -1565,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>47</v>
@@ -1583,10 +1662,10 @@
         <v>49</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>15</v>
@@ -1597,13 +1676,13 @@
       <c r="M8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="20" t="s">
-        <v>205</v>
+      <c r="N8" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1642,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N9" s="7" t="s">
         <v>96</v>
@@ -1689,10 +1768,10 @@
         <v>15</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P10" s="6"/>
     </row>
@@ -1720,10 +1799,10 @@
         <v>68</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>15</v>
@@ -1732,13 +1811,13 @@
         <v>15</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="P11" s="13" t="s">
         <v>97</v>
@@ -1748,15 +1827,15 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="P12" s="21"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K13" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="K13" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K14" s="10" t="s">
@@ -1767,14 +1846,14 @@
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K15" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="18" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1897,7 @@
         <v>83</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>69</v>
@@ -1830,7 +1909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="3">
         <v>1</v>
@@ -1866,7 +1945,7 @@
         <v>112</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>15</v>
@@ -1876,16 +1955,17 @@
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:23" ht="28" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="4">
         <v>1</v>
@@ -1915,13 +1995,13 @@
         <v>111</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>112</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>15</v>
@@ -1930,42 +2010,56 @@
         <v>15</v>
       </c>
       <c r="P20" s="4"/>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="R20" s="8"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S20" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1979,90 +2073,100 @@
         <v>15</v>
       </c>
       <c r="P21" s="3"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q21" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="4">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="K22" s="4" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>112</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="P22" s="4"/>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="R22" s="8"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>15</v>
@@ -2078,40 +2182,41 @@
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="R23" s="24"/>
       <c r="S23" s="6"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>15</v>
@@ -2127,40 +2232,45 @@
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="R24" s="24" t="s">
+        <v>219</v>
+      </c>
       <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T24" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>15</v>
@@ -2176,41 +2286,42 @@
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="24"/>
       <c r="S25" s="6"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="4">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="L26" s="4" t="s">
         <v>15</v>
       </c>
@@ -2224,47 +2335,50 @@
         <v>15</v>
       </c>
       <c r="P26" s="4"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="S26" s="6"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>112</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>15</v>
@@ -2272,42 +2386,49 @@
       <c r="O27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="8"/>
+      <c r="P27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="R27" s="8"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="K28" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>15</v>
@@ -2323,8 +2444,33 @@
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
+      <c r="R28" s="24"/>
       <c r="S28" s="6"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="T32" s="8"/>
+    </row>
+    <row r="33" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T36" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2334,8 +2480,15 @@
     <hyperlink ref="P6" r:id="rId4" display="https://doi.org/10.1099/ijs.0.02366-0" xr:uid="{37D385A3-C90C-41E3-944A-2E8C688449FF}"/>
     <hyperlink ref="P11" r:id="rId5" xr:uid="{20F10F40-4E50-4EE3-9330-D4A21D0FF41D}"/>
     <hyperlink ref="S19" r:id="rId6" display="https://doi.org/10.1007/s10482-013-9959-4" xr:uid="{D4F64722-DBEA-41FE-A08D-E5300B4F990D}"/>
+    <hyperlink ref="V20" r:id="rId7" xr:uid="{F79D97C9-FEDC-4357-A1E6-26BCCD297CC3}"/>
+    <hyperlink ref="W20" r:id="rId8" xr:uid="{33719594-C03D-4C63-A037-D1B2D71FE59D}"/>
+    <hyperlink ref="U20" r:id="rId9" xr:uid="{34932757-8E13-4092-9679-8853553773CA}"/>
+    <hyperlink ref="S20" r:id="rId10" xr:uid="{BF792630-5001-4464-BEE1-0A69697D0F3D}"/>
+    <hyperlink ref="S21" r:id="rId11" xr:uid="{8CA6F93A-C9BC-4483-BAC7-1CB3697683F8}"/>
+    <hyperlink ref="S22" r:id="rId12" xr:uid="{33C98436-9721-4E78-AB58-C88A1D58C5B8}"/>
+    <hyperlink ref="T24" r:id="rId13" xr:uid="{B3F38A68-4986-4F25-8916-BE6CA56E57C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/data/Psychrophiles and Thermophiles.xlsx
+++ b/data/Psychrophiles and Thermophiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aed3d806ed7068fe/Documents/GitHub/TARA-thiolases/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{7ACB10E6-3A25-4D72-9F4B-6E9F0C2BB121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7D017F3-F6F7-47BB-9E46-B1FA95DC3ACF}"/>
+  <xr:revisionPtr revIDLastSave="343" documentId="8_{7ACB10E6-3A25-4D72-9F4B-6E9F0C2BB121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE76046F-B668-4DBB-96F0-3DE5C70560FB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D20BB76-7F3F-49CF-9972-83C8C9A32C4D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="271">
   <si>
     <t>to_synthesize</t>
   </si>
@@ -692,12 +692,6 @@
     <t>50-60 C</t>
   </si>
   <si>
-    <t>all seem to be from the same source but I can't find it</t>
-  </si>
-  <si>
-    <t>patric seems to be pulling data about Mastigocladus laminosus, is that the same thing?</t>
-  </si>
-  <si>
     <t>DOI: 10.4056/sigs.1533840</t>
   </si>
   <si>
@@ -714,13 +708,248 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA362212</t>
+  </si>
+  <si>
+    <t>New Zealand: Waitangi Springs</t>
+  </si>
+  <si>
+    <t>Deltaproteobacteria bacterium B9_G4</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>NCBI sample_name</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Deltaproteobacteria bacterium B30_G6</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>Epsilonproteobacteria bacterium B11_G4</t>
+  </si>
+  <si>
+    <t>Verrucomicrobia bacterium B12_G4</t>
+  </si>
+  <si>
+    <t>IMG Genome ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dive &amp; core </t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Depth (cm)</t>
+  </si>
+  <si>
+    <t>Sulfide (mM)</t>
+  </si>
+  <si>
+    <t>DIC (mM)</t>
+  </si>
+  <si>
+    <t>Alkanes</t>
+  </si>
+  <si>
+    <t>T (°C)</t>
+  </si>
+  <si>
+    <t>Hydrothermal activity</t>
+  </si>
+  <si>
+    <t>Beggiatoa</t>
+  </si>
+  <si>
+    <t>Collection Year</t>
+  </si>
+  <si>
+    <t>Collection Month</t>
+  </si>
+  <si>
+    <t>Collection Day</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <r>
+      <t>SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (mM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (mM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C-CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>δ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color indexed="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C-DIC</t>
+    </r>
+  </si>
+  <si>
+    <t>4569_2</t>
+  </si>
+  <si>
+    <t>Vent1b (intermediate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-3</t>
+  </si>
+  <si>
+    <t>40 - 50 (uM ethane)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>27°00.9087N</t>
+  </si>
+  <si>
+    <t>111° 22.7932W</t>
+  </si>
+  <si>
+    <t>4569_4</t>
+  </si>
+  <si>
+    <t>Vent1a (outside)</t>
+  </si>
+  <si>
+    <t>&lt;1 (uM ethane)</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>Guaymas Basin (Gulf of California)</t>
+  </si>
+  <si>
+    <t>27°00.9087N, 111° 22.7932W</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/s41467-018-07418-0</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/s41467-018-07418-0</t>
+  </si>
+  <si>
+    <t>same as Mastigocladus laminosus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,8 +1031,65 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="4"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="4"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,6 +1136,18 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -910,11 +1208,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -972,10 +1271,70 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F732C1E4-EB1C-4809-90F7-6AC98C7001C8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083C16F-3167-4878-8322-8AAE01B755F8}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N18" zoomScale="132" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="N19" zoomScale="136" workbookViewId="0">
+      <selection activeCell="T26" sqref="S26:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2141,7 +2500,7 @@
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2177,16 +2536,20 @@
       <c r="N23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="8"/>
+      <c r="O23" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="R23" s="24"/>
       <c r="S23" s="6"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="4">
         <v>1</v>
@@ -2227,17 +2590,21 @@
       <c r="N24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="S24" s="6"/>
+      <c r="O24" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="R24" s="24"/>
+      <c r="S24" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="T24" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2260,7 +2627,7 @@
       <c r="G25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="25" t="s">
         <v>152</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -2281,13 +2648,17 @@
       <c r="N25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="8"/>
+      <c r="O25" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="R25" s="24"/>
-      <c r="S25" s="6"/>
+      <c r="S25" s="27"/>
       <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2295,7 +2666,7 @@
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2310,7 +2681,7 @@
       <c r="G26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="26" t="s">
         <v>160</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -2335,11 +2706,13 @@
         <v>15</v>
       </c>
       <c r="P26" s="4"/>
-      <c r="Q26" s="23"/>
+      <c r="Q26" s="23" t="s">
+        <v>225</v>
+      </c>
       <c r="R26" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="S26" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="S26" s="13"/>
       <c r="T26" s="8"/>
     </row>
     <row r="27" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -2372,29 +2745,29 @@
         <v>171</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>112</v>
       </c>
       <c r="M27" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="Q27" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T27" s="8"/>
     </row>
@@ -2439,11 +2812,15 @@
       <c r="N28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="8"/>
+      <c r="O28" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="R28" s="24"/>
       <c r="S28" s="6"/>
       <c r="T28" s="8"/>
@@ -2460,17 +2837,333 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.35">
-      <c r="T33" s="8"/>
-    </row>
-    <row r="34" spans="20:20" x14ac:dyDescent="0.35">
-      <c r="T34" s="8"/>
-    </row>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.35">
-      <c r="T35" s="8"/>
-    </row>
-    <row r="36" spans="20:20" x14ac:dyDescent="0.35">
-      <c r="T36" s="8"/>
+    <row r="33" spans="3:24" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="N33" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="P33" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q33" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="R33" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="S33" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="T33" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="U33" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="V33" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="W33" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="X33" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C34" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" s="45">
+        <v>3300013099</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="I34" s="34">
+        <v>21.76</v>
+      </c>
+      <c r="J34" s="34">
+        <v>0.4760623701284481</v>
+      </c>
+      <c r="K34" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="L34" s="34">
+        <v>-38.61</v>
+      </c>
+      <c r="M34" s="33">
+        <v>10.502572434335228</v>
+      </c>
+      <c r="N34" s="32">
+        <v>-13.3</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="P34" s="45">
+        <v>6.1</v>
+      </c>
+      <c r="Q34" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="R34" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="S34" s="32">
+        <v>2009</v>
+      </c>
+      <c r="T34" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="U34" s="30">
+        <v>30</v>
+      </c>
+      <c r="V34" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="W34" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C35" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="45">
+        <v>3300013101</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="I35" s="34">
+        <v>24.250624428876026</v>
+      </c>
+      <c r="J35" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="K35" s="34">
+        <v>1.2975670269077555E-2</v>
+      </c>
+      <c r="L35" s="34">
+        <v>-47.6</v>
+      </c>
+      <c r="M35" s="33">
+        <v>4.060655293799079</v>
+      </c>
+      <c r="N35" s="32">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="P35" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="Q35" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="R35" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="S35" s="32">
+        <v>2009</v>
+      </c>
+      <c r="T35" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="U35" s="30">
+        <v>30</v>
+      </c>
+      <c r="V35" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="W35" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C36" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="45">
+        <v>3300013101</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="I36" s="34">
+        <v>24.250624428876026</v>
+      </c>
+      <c r="J36" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="K36" s="34">
+        <v>1.2975670269077555E-2</v>
+      </c>
+      <c r="L36" s="34">
+        <v>-47.6</v>
+      </c>
+      <c r="M36" s="33">
+        <v>4.060655293799079</v>
+      </c>
+      <c r="N36" s="32">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="P36" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="Q36" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="R36" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="S36" s="32">
+        <v>2009</v>
+      </c>
+      <c r="T36" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="U36" s="30">
+        <v>30</v>
+      </c>
+      <c r="V36" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="W36" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C37" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E37" s="45">
+        <v>3300013101</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="I37" s="34">
+        <v>24.250624428876026</v>
+      </c>
+      <c r="J37" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="K37" s="34">
+        <v>1.2975670269077555E-2</v>
+      </c>
+      <c r="L37" s="34">
+        <v>-47.6</v>
+      </c>
+      <c r="M37" s="33">
+        <v>4.060655293799079</v>
+      </c>
+      <c r="N37" s="32">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="P37" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="Q37" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="R37" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="S37" s="32">
+        <v>2009</v>
+      </c>
+      <c r="T37" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="U37" s="30">
+        <v>30</v>
+      </c>
+      <c r="V37" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="W37" s="32" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2487,8 +3180,9 @@
     <hyperlink ref="S21" r:id="rId11" xr:uid="{8CA6F93A-C9BC-4483-BAC7-1CB3697683F8}"/>
     <hyperlink ref="S22" r:id="rId12" xr:uid="{33C98436-9721-4E78-AB58-C88A1D58C5B8}"/>
     <hyperlink ref="T24" r:id="rId13" xr:uid="{B3F38A68-4986-4F25-8916-BE6CA56E57C2}"/>
+    <hyperlink ref="X33" r:id="rId14" display="https://doi.org/10.1038/s41467-018-07418-0" xr:uid="{5807EFDA-9BF1-4C12-9D62-F1DAC338B86C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>